--- a/sharedata/exceldata/excel/all/X-限时活动.xlsx
+++ b/sharedata/exceldata/excel/all/X-限时活动.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32700" windowHeight="15444" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="限时活动" sheetId="10" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="591">
   <si>
     <t>不同活动可以包含相同的活动组，前提是它们的活动时间不会交叉，不然会有逻辑问题</t>
   </si>
@@ -2180,6 +2180,10 @@
   </si>
   <si>
     <t>09:00:00</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-05-14</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2541,7 +2545,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2598,9 +2602,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2977,11 +2978,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M8" sqref="M8:M10"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3006,40 +3007,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="27" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="30"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
@@ -3167,7 +3168,7 @@
       <c r="C6" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>588</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -3218,17 +3219,17 @@
       <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="23" t="str">
+      <c r="F7" s="22" t="str">
         <f>TEXT(M7,"yyyy-mm-dd")&amp;" "&amp;N7</f>
-        <v>2023-04-17 09:00:00</v>
-      </c>
-      <c r="G7" s="23" t="str">
+        <v>2023-05-14 09:00:00</v>
+      </c>
+      <c r="G7" s="22" t="str">
         <f>TEXT(O7,"yyyy-mm-dd")&amp;" "&amp;P7</f>
-        <v>2023-04-24 00:00:00</v>
-      </c>
-      <c r="H7" s="23" t="str">
+        <v>2023-05-21 00:00:00</v>
+      </c>
+      <c r="H7" s="22" t="str">
         <f>TEXT(Q7,"yyyy-mm-dd")&amp;" "&amp;R7</f>
-        <v>2023-04-25 00:00:00</v>
+        <v>2023-05-22 00:00:00</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>41</v>
@@ -3242,24 +3243,24 @@
       <c r="L7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M7" s="20">
-        <v>45033</v>
+      <c r="M7" s="19" t="s">
+        <v>590</v>
       </c>
       <c r="N7" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="O7" s="22">
+      <c r="O7" s="21">
         <f>M7+7</f>
-        <v>45040</v>
-      </c>
-      <c r="P7" s="21" t="s">
+        <v>45067</v>
+      </c>
+      <c r="P7" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q7" s="22">
+      <c r="Q7" s="21">
         <f>O7+1</f>
-        <v>45041</v>
-      </c>
-      <c r="R7" s="21" t="s">
+        <v>45068</v>
+      </c>
+      <c r="R7" s="20" t="s">
         <v>580</v>
       </c>
     </row>
@@ -3277,17 +3278,17 @@
       <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="23" t="str">
+      <c r="F8" s="22" t="str">
         <f t="shared" ref="F8:F10" si="0">TEXT(M8,"yyyy-mm-dd")&amp;" "&amp;N8</f>
-        <v>2023-04-25 09:00:00</v>
-      </c>
-      <c r="G8" s="23" t="str">
+        <v>2023-05-22 09:00:00</v>
+      </c>
+      <c r="G8" s="22" t="str">
         <f t="shared" ref="G8:G10" si="1">TEXT(O8,"yyyy-mm-dd")&amp;" "&amp;P8</f>
-        <v>2023-05-02 00:00:00</v>
-      </c>
-      <c r="H8" s="23" t="str">
+        <v>2023-05-29 00:00:00</v>
+      </c>
+      <c r="H8" s="22" t="str">
         <f t="shared" ref="H8:H10" si="2">TEXT(Q8,"yyyy-mm-dd")&amp;" "&amp;R8</f>
-        <v>2023-05-03 00:00:00</v>
+        <v>2023-05-30 00:00:00</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>49</v>
@@ -3301,25 +3302,25 @@
       <c r="L8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="21">
         <f>Q7</f>
-        <v>45041</v>
+        <v>45068</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="O8" s="22">
+      <c r="O8" s="21">
         <f t="shared" ref="O8:O10" si="3">M8+7</f>
-        <v>45048</v>
-      </c>
-      <c r="P8" s="21" t="s">
+        <v>45075</v>
+      </c>
+      <c r="P8" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q8" s="22">
+      <c r="Q8" s="21">
         <f t="shared" ref="Q8:Q10" si="4">O8+1</f>
-        <v>45049</v>
-      </c>
-      <c r="R8" s="21" t="s">
+        <v>45076</v>
+      </c>
+      <c r="R8" s="20" t="s">
         <v>580</v>
       </c>
     </row>
@@ -3336,17 +3337,17 @@
       <c r="E9" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F9" s="23" t="str">
+      <c r="F9" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>2023-05-03 09:00:00</v>
-      </c>
-      <c r="G9" s="23" t="str">
+        <v>2023-05-30 09:00:00</v>
+      </c>
+      <c r="G9" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-10 00:00:00</v>
-      </c>
-      <c r="H9" s="23" t="str">
+        <v>2023-06-06 00:00:00</v>
+      </c>
+      <c r="H9" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-11 00:00:00</v>
+        <v>2023-06-07 00:00:00</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>41</v>
@@ -3360,25 +3361,25 @@
       <c r="L9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="21">
         <f t="shared" ref="M9:M10" si="5">Q8</f>
-        <v>45049</v>
+        <v>45076</v>
       </c>
       <c r="N9" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="O9" s="22">
+      <c r="O9" s="21">
         <f t="shared" si="3"/>
-        <v>45056</v>
-      </c>
-      <c r="P9" s="21" t="s">
+        <v>45083</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="Q9" s="21">
         <f t="shared" si="4"/>
-        <v>45057</v>
-      </c>
-      <c r="R9" s="21" t="s">
+        <v>45084</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>580</v>
       </c>
     </row>
@@ -3395,17 +3396,17 @@
       <c r="E10" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="F10" s="23" t="str">
+      <c r="F10" s="22" t="str">
         <f t="shared" si="0"/>
-        <v>2023-05-11 09:00:00</v>
-      </c>
-      <c r="G10" s="23" t="str">
+        <v>2023-06-07 09:00:00</v>
+      </c>
+      <c r="G10" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>2023-05-18 00:00:00</v>
-      </c>
-      <c r="H10" s="23" t="str">
+        <v>2023-06-14 00:00:00</v>
+      </c>
+      <c r="H10" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>2023-05-19 00:00:00</v>
+        <v>2023-06-15 00:00:00</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>49</v>
@@ -3419,25 +3420,25 @@
       <c r="L10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="22">
+      <c r="M10" s="21">
         <f t="shared" si="5"/>
-        <v>45057</v>
+        <v>45084</v>
       </c>
       <c r="N10" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="O10" s="22">
+      <c r="O10" s="21">
         <f t="shared" si="3"/>
-        <v>45064</v>
-      </c>
-      <c r="P10" s="21" t="s">
+        <v>45091</v>
+      </c>
+      <c r="P10" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="Q10" s="22">
+      <c r="Q10" s="21">
         <f t="shared" si="4"/>
-        <v>45065</v>
-      </c>
-      <c r="R10" s="21" t="s">
+        <v>45092</v>
+      </c>
+      <c r="R10" s="20" t="s">
         <v>580</v>
       </c>
     </row>
@@ -3484,7 +3485,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3493,7 +3494,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="36"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3664,12 +3665,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>74</v>
       </c>
       <c r="E1" s="13"/>
@@ -3681,12 +3682,12 @@
       <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="38"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="36"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="3" t="s">
         <v>77</v>
       </c>
@@ -4060,11 +4061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
